--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19933AB-B650-422C-835C-88006C9F8E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E57E8-6A4B-4F05-8897-4653297D0A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -417,12 +417,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -627,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="C16">
         <v>11</v>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E57E8-6A4B-4F05-8897-4653297D0A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738E6530-843C-46AA-97CB-F6EE366A9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -413,11 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,13 +459,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -473,13 +473,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -487,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>40000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>50000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,13 +515,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>11</v>
       </c>
       <c r="D7">
-        <v>60000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>80000000</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -557,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>100000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -571,13 +571,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,13 +585,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>200000000</v>
+        <v>120000000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -599,13 +599,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>250000000</v>
+        <v>140000000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -613,13 +613,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>210000</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>300000000</v>
+        <v>160000000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -627,13 +627,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15">
-        <v>350000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -641,13 +641,83 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16">
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>280000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>320000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>360000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
         <v>400000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>450000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738E6530-843C-46AA-97CB-F6EE366A9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E440AD-66B2-4AC8-AB11-CB40C234ADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +72,52 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,17 +129,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,13 +477,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -458,8 +518,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="1">
+        <v>10000</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -472,8 +532,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="1">
+        <v>20000</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -486,8 +546,8 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>30000</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -500,8 +560,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="1">
+        <v>40000</v>
       </c>
       <c r="C6">
         <v>11</v>
@@ -514,8 +574,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" s="1">
+        <v>50000</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -528,8 +588,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" s="2">
+        <v>65000</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -542,8 +602,8 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" s="2">
+        <v>80000</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -556,8 +616,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" s="2">
+        <v>95000</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -570,8 +630,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" s="2">
+        <v>110000</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -584,8 +644,8 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" s="2">
+        <v>125000</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -598,8 +658,8 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="2">
+        <v>140000</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -612,8 +672,8 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" s="2">
+        <v>155000</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -626,8 +686,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" s="2">
+        <v>170000</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -640,8 +700,8 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" s="2">
+        <v>185000</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -654,8 +714,8 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" s="2">
+        <v>200000</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -668,8 +728,8 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" s="3">
+        <v>220000</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -682,8 +742,8 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" s="3">
+        <v>240000</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -696,8 +756,8 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" s="3">
+        <v>260000</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -710,8 +770,8 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" s="3">
+        <v>280000</v>
       </c>
       <c r="C21">
         <v>11</v>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E440AD-66B2-4AC8-AB11-CB40C234ADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F58E31-D8EE-40AD-A048-8A2074B7144B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -473,11 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,6 +780,34 @@
         <v>450000000</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>300000</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>350000</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>600000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F58E31-D8EE-40AD-A048-8A2074B7144B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F17D0-0ED1-4B9F-B234-81F2CEBBF8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6045" yWindow="5925" windowWidth="18480" windowHeight="13200" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -473,11 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -808,6 +808,48 @@
         <v>600000000</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>400000</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>700000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>450000</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>900000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F17D0-0ED1-4B9F-B234-81F2CEBBF8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3BCEF-5880-4BFE-88D7-CC1D83249981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="5925" windowWidth="18480" windowHeight="13200" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>700000000</v>
+        <v>900000000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>800000000</v>
+        <v>1200000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>900000000</v>
+        <v>1500000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3BCEF-5880-4BFE-88D7-CC1D83249981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7972221-1DA4-4ACC-A58D-425FDD9394CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6795" yWindow="3690" windowWidth="21180" windowHeight="11805" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -473,11 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -850,6 +850,20 @@
         <v>1500000000</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>550000</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>1800000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7972221-1DA4-4ACC-A58D-425FDD9394CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D68814-87A6-4039-9295-BF4E0C0C54AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3690" windowWidth="21180" windowHeight="11805" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,14 @@
   </si>
   <si>
     <t>AbilValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilValue2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,7 +494,7 @@
     <col min="4" max="4" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +507,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -513,8 +527,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -527,8 +547,14 @@
       <c r="D3">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -541,8 +567,14 @@
       <c r="D4">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -555,8 +587,14 @@
       <c r="D5">
         <v>30000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -569,8 +607,14 @@
       <c r="D6">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -583,8 +627,14 @@
       <c r="D7">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -597,8 +647,14 @@
       <c r="D8">
         <v>60000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -611,8 +667,14 @@
       <c r="D9">
         <v>70000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -625,8 +687,14 @@
       <c r="D10">
         <v>80000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -639,8 +707,14 @@
       <c r="D11">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -653,8 +727,14 @@
       <c r="D12">
         <v>120000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -667,8 +747,14 @@
       <c r="D13">
         <v>140000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -681,8 +767,14 @@
       <c r="D14">
         <v>160000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -695,8 +787,14 @@
       <c r="D15">
         <v>200000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -709,8 +807,14 @@
       <c r="D16">
         <v>240000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -723,8 +827,14 @@
       <c r="D17">
         <v>280000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -737,8 +847,14 @@
       <c r="D18">
         <v>320000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -751,8 +867,14 @@
       <c r="D19">
         <v>360000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -765,8 +887,14 @@
       <c r="D20">
         <v>400000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -779,8 +907,14 @@
       <c r="D21">
         <v>450000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -793,8 +927,14 @@
       <c r="D22">
         <v>500000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -807,8 +947,14 @@
       <c r="D23">
         <v>600000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -821,8 +967,14 @@
       <c r="D24">
         <v>900000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -835,8 +987,14 @@
       <c r="D25">
         <v>1200000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -849,8 +1007,14 @@
       <c r="D26">
         <v>1500000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -862,6 +1026,192 @@
       </c>
       <c r="D27">
         <v>1800000000</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>600000</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>2100000000</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>650000</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>2400000000</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>700000</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>2700000000</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>750000</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>3000000000</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>800000</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>3300000000</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>850000</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>3600000000</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>900000</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>3900000000</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>950000</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>4200000000</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>4500000000</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D68814-87A6-4039-9295-BF4E0C0C54AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E7606C-A52E-4B17-AD24-D626D0B26D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -831,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -951,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1011,27 +1011,27 @@
         <v>18</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>550000</v>
       </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1">
         <v>1800000000</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>18</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1091,7 +1091,7 @@
         <v>18</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1171,47 +1171,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3">
-        <v>950000</v>
-      </c>
-      <c r="C35">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>4200000000</v>
-      </c>
-      <c r="E35">
-        <v>18</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="C36">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>4500000000</v>
-      </c>
-      <c r="E36">
-        <v>18</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
+        <v>34000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E7606C-A52E-4B17-AD24-D626D0B26D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F345C4-8EE5-4963-AB37-308096E449FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="D29">
-        <v>2400000000</v>
+        <v>2500000000</v>
       </c>
       <c r="E29">
         <v>18</v>
@@ -1085,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="D30">
-        <v>2700000000</v>
+        <v>3000000000</v>
       </c>
       <c r="E30">
         <v>18</v>
@@ -1105,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="D31">
-        <v>3000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="E31">
         <v>18</v>
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="D32">
-        <v>3300000000</v>
+        <v>4000000000</v>
       </c>
       <c r="E32">
         <v>18</v>
@@ -1145,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="D33">
-        <v>3600000000</v>
+        <v>4500000000</v>
       </c>
       <c r="E33">
         <v>18</v>
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="D34">
-        <v>3900000000</v>
+        <v>5000000000</v>
       </c>
       <c r="E34">
         <v>18</v>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F345C4-8EE5-4963-AB37-308096E449FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4DD26-6E35-4CE5-815D-A970C0C104C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,24 +1154,144 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>900000</v>
       </c>
-      <c r="C34">
-        <v>11</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1">
         <v>5000000000</v>
       </c>
-      <c r="E34">
-        <v>18</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="1">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1">
         <v>34000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>950000</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>5500000000</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6000000000</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>6500000000</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7000000000</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>8000000000</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9000000000</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>46000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4DD26-6E35-4CE5-815D-A970C0C104C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E098FAE3-594C-4E2F-8643-6B267238D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1294,6 +1294,86 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9550000000</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>10300000000</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1">
+        <v>11050000000</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>11800000000</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E098FAE3-594C-4E2F-8643-6B267238D909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF6960-A5CC-4740-8ED9-E98ECE9D8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="1">
-        <v>9550000000</v>
+        <v>10000000000</v>
       </c>
       <c r="E41">
         <v>18</v>
@@ -1325,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>10300000000</v>
+        <v>11000000000</v>
       </c>
       <c r="E42">
         <v>18</v>
@@ -1345,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="1">
-        <v>11050000000</v>
+        <v>12000000000</v>
       </c>
       <c r="E43">
         <v>18</v>
@@ -1364,14 +1364,54 @@
       <c r="C44">
         <v>11</v>
       </c>
-      <c r="D44">
-        <v>11800000000</v>
+      <c r="D44" s="1">
+        <v>13000000000</v>
       </c>
       <c r="E44">
         <v>18</v>
       </c>
       <c r="F44">
         <v>54000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>14000000000</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1">
+        <v>15000000000</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>58000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF6960-A5CC-4740-8ED9-E98ECE9D8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8267C87-1D92-4E35-9325-F7838214F7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7065" yWindow="3465" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1414,6 +1414,86 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1">
+        <v>16000000000</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1600000</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>17000000000</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1650000</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1">
+        <v>18000000000</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1">
+        <v>19000000000</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>66000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8267C87-1D92-4E35-9325-F7838214F7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8819321-EA2D-4D92-A4C7-323D26A47180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="3465" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="12855" yWindow="1800" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1494,6 +1494,106 @@
         <v>66000</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>20000000000</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1">
+        <v>21000000000</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1">
+        <v>22000000000</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>23000000000</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1950000</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1">
+        <v>24000000000</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>76000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8819321-EA2D-4D92-A4C7-323D26A47180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682CDA1B-7BC4-43D6-8566-C9154116830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="1800" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1594,6 +1594,106 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1">
+        <v>26000000000</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="F56">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2050000</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1">
+        <v>28000000000</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="E58">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2150000</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1">
+        <v>32000000000</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1">
+        <v>34000000000</v>
+      </c>
+      <c r="E60">
+        <v>18</v>
+      </c>
+      <c r="F60">
+        <v>86000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682CDA1B-7BC4-43D6-8566-C9154116830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C82875-AA91-47FC-8133-436AA451D3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8025" yWindow="1890" windowWidth="23595" windowHeight="16755" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1694,6 +1694,106 @@
         <v>86000</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1">
+        <v>36000000000</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1">
+        <v>38000000000</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2350000</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1">
+        <v>40000000000</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42000000000</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2450000</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44000000000</v>
+      </c>
+      <c r="E65">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>96000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C82875-AA91-47FC-8133-436AA451D3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD6A77E-1C78-43B8-9055-370D27B77668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="1890" windowWidth="23595" windowHeight="16755" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1794,6 +1794,146 @@
         <v>96000</v>
       </c>
     </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1">
+        <v>48000000000</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2550000</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1">
+        <v>52000000000</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1">
+        <v>56000000000</v>
+      </c>
+      <c r="E68">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2650000</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1">
+        <v>64000000000</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1">
+        <v>68000000000</v>
+      </c>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72" s="1">
+        <v>72000000000</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>124000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD6A77E-1C78-43B8-9055-370D27B77668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF029570-094D-477B-8D96-55A1F041C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9030" yWindow="3675" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66:F72"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1934,6 +1934,206 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2850000</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1">
+        <v>76000000000</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2900000</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1">
+        <v>80000000000</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1">
+        <v>84000000000</v>
+      </c>
+      <c r="E75">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1">
+        <v>88000000000</v>
+      </c>
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3050000</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1">
+        <v>92000000000</v>
+      </c>
+      <c r="E77">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1">
+        <v>96000000000</v>
+      </c>
+      <c r="E78">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>3150000</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="E79">
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>104000000000</v>
+      </c>
+      <c r="E80">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>3250000</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1">
+        <v>108000000000</v>
+      </c>
+      <c r="E81">
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3300000</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1">
+        <v>112000000000</v>
+      </c>
+      <c r="E82">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>164000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF029570-094D-477B-8D96-55A1F041C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10B6CD-BF12-4555-B4FD-75D771475B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="3675" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2134,6 +2134,166 @@
         <v>164000</v>
       </c>
     </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>3350000</v>
+      </c>
+      <c r="C83">
+        <v>11</v>
+      </c>
+      <c r="D83" s="1">
+        <v>116000000000</v>
+      </c>
+      <c r="E83">
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>3400000</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84" s="1">
+        <v>120000000000</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>3450000</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1">
+        <v>124000000000</v>
+      </c>
+      <c r="E85">
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86" s="1">
+        <v>128000000000</v>
+      </c>
+      <c r="E86">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>3550000</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+      <c r="D87" s="1">
+        <v>132000000000</v>
+      </c>
+      <c r="E87">
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1">
+        <v>136000000000</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3650000</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1">
+        <v>140000000000</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1">
+        <v>144000000000</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>196000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10B6CD-BF12-4555-B4FD-75D771475B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB03E2C-2228-42F9-8CB8-1F560E36AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2294,6 +2294,126 @@
         <v>196000</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3750000</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91" s="1">
+        <v>148000000000</v>
+      </c>
+      <c r="E91">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92" s="1">
+        <v>152000000000</v>
+      </c>
+      <c r="E92">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <v>3850000</v>
+      </c>
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1">
+        <v>156000000000</v>
+      </c>
+      <c r="E93">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>3900000</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94" s="1">
+        <v>160000000000</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>3950000</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95" s="1">
+        <v>164000000000</v>
+      </c>
+      <c r="E95">
+        <v>18</v>
+      </c>
+      <c r="F95">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96" s="1">
+        <v>168000000000</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>220000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB03E2C-2228-42F9-8CB8-1F560E36AE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E70B1-7774-4343-9B16-E4606E5D29E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2414,6 +2414,126 @@
         <v>220000</v>
       </c>
     </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>4050000</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97" s="1">
+        <v>172000000000</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98" s="1">
+        <v>176000000000</v>
+      </c>
+      <c r="E98">
+        <v>18</v>
+      </c>
+      <c r="F98">
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99" s="1">
+        <v>180000000000</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>4200000</v>
+      </c>
+      <c r="C100">
+        <v>11</v>
+      </c>
+      <c r="D100" s="1">
+        <v>184000000000</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>236000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>4250000</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+      <c r="D101" s="1">
+        <v>188000000000</v>
+      </c>
+      <c r="E101">
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" s="1">
+        <v>192000000000</v>
+      </c>
+      <c r="E102">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>244000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E70B1-7774-4343-9B16-E4606E5D29E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F1F3C4-399A-46EC-AA76-1296D51374DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2515,7 +2515,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="3">
@@ -2532,6 +2532,206 @@
       </c>
       <c r="F102">
         <v>244000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <v>4350000</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103" s="1">
+        <v>196000000000</v>
+      </c>
+      <c r="E103">
+        <v>18</v>
+      </c>
+      <c r="F103">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>4400000</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104" s="1">
+        <v>200000000000</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>4450000</v>
+      </c>
+      <c r="C105">
+        <v>11</v>
+      </c>
+      <c r="D105" s="1">
+        <v>204000000000</v>
+      </c>
+      <c r="E105">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106" s="1">
+        <v>208000000000</v>
+      </c>
+      <c r="E106">
+        <v>18</v>
+      </c>
+      <c r="F106">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <v>4550000</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107" s="1">
+        <v>212000000000</v>
+      </c>
+      <c r="E107">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>4600000</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108" s="1">
+        <v>216000000000</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>268000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <v>4650000</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109" s="1">
+        <v>220000000000</v>
+      </c>
+      <c r="E109">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>272000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110" s="1">
+        <v>224000000000</v>
+      </c>
+      <c r="E110">
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <v>4750000</v>
+      </c>
+      <c r="C111">
+        <v>11</v>
+      </c>
+      <c r="D111" s="1">
+        <v>228000000000</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>4800000</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112" s="1">
+        <v>232000000000</v>
+      </c>
+      <c r="E112">
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>284000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F1F3C4-399A-46EC-AA76-1296D51374DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8147B701-646C-435D-B2D6-8ED53684ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2734,6 +2734,46 @@
         <v>284000</v>
       </c>
     </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <v>4850000</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113" s="1">
+        <v>236000000000</v>
+      </c>
+      <c r="E113">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>4900000</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114" s="1">
+        <v>240000000000</v>
+      </c>
+      <c r="E114">
+        <v>18</v>
+      </c>
+      <c r="F114">
+        <v>292000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8147B701-646C-435D-B2D6-8ED53684ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020365F-7E39-404A-A7C8-20C8C31B636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2774,6 +2774,346 @@
         <v>292000</v>
       </c>
     </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <v>4950000</v>
+      </c>
+      <c r="C115">
+        <v>11</v>
+      </c>
+      <c r="D115" s="1">
+        <v>244000000000</v>
+      </c>
+      <c r="E115">
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>296000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="C116">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1">
+        <v>248000000000</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5050000</v>
+      </c>
+      <c r="C117">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1">
+        <v>252000000000</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="C118">
+        <v>11</v>
+      </c>
+      <c r="D118" s="1">
+        <v>256000000000</v>
+      </c>
+      <c r="E118">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3">
+        <v>5150000</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119" s="1">
+        <v>260000000000</v>
+      </c>
+      <c r="E119">
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+      <c r="D120" s="1">
+        <v>264000000000</v>
+      </c>
+      <c r="E120">
+        <v>18</v>
+      </c>
+      <c r="F120">
+        <v>316000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <v>5250000</v>
+      </c>
+      <c r="C121">
+        <v>11</v>
+      </c>
+      <c r="D121" s="1">
+        <v>268000000000</v>
+      </c>
+      <c r="E121">
+        <v>18</v>
+      </c>
+      <c r="F121">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>5300000</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122" s="1">
+        <v>272000000000</v>
+      </c>
+      <c r="E122">
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>5350000</v>
+      </c>
+      <c r="C123">
+        <v>11</v>
+      </c>
+      <c r="D123" s="1">
+        <v>276000000000</v>
+      </c>
+      <c r="E123">
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>5400000</v>
+      </c>
+      <c r="C124">
+        <v>11</v>
+      </c>
+      <c r="D124" s="1">
+        <v>280000000000</v>
+      </c>
+      <c r="E124">
+        <v>18</v>
+      </c>
+      <c r="F124">
+        <v>332000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>5450000</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125" s="1">
+        <v>284000000000</v>
+      </c>
+      <c r="E125">
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+      <c r="D126" s="1">
+        <v>288000000000</v>
+      </c>
+      <c r="E126">
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <v>5550000</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
+      </c>
+      <c r="D127" s="1">
+        <v>292000000000</v>
+      </c>
+      <c r="E127">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>344000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>5600000</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+      <c r="D128" s="1">
+        <v>296000000000</v>
+      </c>
+      <c r="E128">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>348000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3">
+        <v>5650000</v>
+      </c>
+      <c r="C129">
+        <v>11</v>
+      </c>
+      <c r="D129" s="1">
+        <v>300000000000</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>352000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5700000</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+      <c r="D130" s="1">
+        <v>304000000000</v>
+      </c>
+      <c r="E130">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>356000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <v>5750000</v>
+      </c>
+      <c r="C131">
+        <v>11</v>
+      </c>
+      <c r="D131" s="1">
+        <v>308000000000</v>
+      </c>
+      <c r="E131">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>360000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020365F-7E39-404A-A7C8-20C8C31B636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC7A80B-15B4-4CF5-B2D4-6067A26AB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -481,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
@@ -3114,6 +3114,126 @@
         <v>360000</v>
       </c>
     </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="C132">
+        <v>11</v>
+      </c>
+      <c r="D132" s="1">
+        <v>312000000000</v>
+      </c>
+      <c r="E132">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5850000</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133" s="1">
+        <v>316000000000</v>
+      </c>
+      <c r="E133">
+        <v>18</v>
+      </c>
+      <c r="F133">
+        <v>368000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5900000</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134" s="1">
+        <v>320000000000</v>
+      </c>
+      <c r="E134">
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>372000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <v>5950000</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="D135" s="1">
+        <v>324000000000</v>
+      </c>
+      <c r="E135">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="C136">
+        <v>11</v>
+      </c>
+      <c r="D136" s="1">
+        <v>328000000000</v>
+      </c>
+      <c r="E136">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <v>6050000</v>
+      </c>
+      <c r="C137">
+        <v>11</v>
+      </c>
+      <c r="D137" s="1">
+        <v>332000000000</v>
+      </c>
+      <c r="E137">
+        <v>18</v>
+      </c>
+      <c r="F137">
+        <v>384000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC7A80B-15B4-4CF5-B2D4-6067A26AB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D64EAC-C016-478E-99DD-D607F880627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3234,6 +3234,206 @@
         <v>384000</v>
       </c>
     </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>6100000</v>
+      </c>
+      <c r="C138">
+        <v>11</v>
+      </c>
+      <c r="D138" s="1">
+        <v>336000000000</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>388000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>6150000</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139" s="1">
+        <v>340000000000</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>6200000</v>
+      </c>
+      <c r="C140">
+        <v>11</v>
+      </c>
+      <c r="D140" s="1">
+        <v>344000000000</v>
+      </c>
+      <c r="E140">
+        <v>18</v>
+      </c>
+      <c r="F140">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <v>6250000</v>
+      </c>
+      <c r="C141">
+        <v>11</v>
+      </c>
+      <c r="D141" s="1">
+        <v>348000000000</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <v>6300000</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142" s="1">
+        <v>352000000000</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="F142">
+        <v>404000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <v>6350000</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143" s="1">
+        <v>356000000000</v>
+      </c>
+      <c r="E143">
+        <v>18</v>
+      </c>
+      <c r="F143">
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>6400000</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144" s="1">
+        <v>360000000000</v>
+      </c>
+      <c r="E144">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <v>6450000</v>
+      </c>
+      <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145" s="1">
+        <v>364000000000</v>
+      </c>
+      <c r="E145">
+        <v>18</v>
+      </c>
+      <c r="F145">
+        <v>416000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="C146">
+        <v>11</v>
+      </c>
+      <c r="D146" s="1">
+        <v>368000000000</v>
+      </c>
+      <c r="E146">
+        <v>18</v>
+      </c>
+      <c r="F146">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <v>6550000</v>
+      </c>
+      <c r="C147">
+        <v>11</v>
+      </c>
+      <c r="D147" s="1">
+        <v>372000000000</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>424000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D64EAC-C016-478E-99DD-D607F880627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355FAB6A-EB9F-450A-9234-BC54B403575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3434,6 +3434,186 @@
         <v>424000</v>
       </c>
     </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>6600000</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148" s="1">
+        <v>376000000000</v>
+      </c>
+      <c r="E148">
+        <v>18</v>
+      </c>
+      <c r="F148">
+        <v>428000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <v>6650000</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149" s="1">
+        <v>380000000000</v>
+      </c>
+      <c r="E149">
+        <v>18</v>
+      </c>
+      <c r="F149">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>6700000</v>
+      </c>
+      <c r="C150">
+        <v>11</v>
+      </c>
+      <c r="D150" s="1">
+        <v>384000000000</v>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150">
+        <v>436000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <v>6750000</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151" s="1">
+        <v>388000000000</v>
+      </c>
+      <c r="E151">
+        <v>18</v>
+      </c>
+      <c r="F151">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>6800000</v>
+      </c>
+      <c r="C152">
+        <v>11</v>
+      </c>
+      <c r="D152" s="1">
+        <v>392000000000</v>
+      </c>
+      <c r="E152">
+        <v>18</v>
+      </c>
+      <c r="F152">
+        <v>444000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3">
+        <v>6850000</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153" s="1">
+        <v>396000000000</v>
+      </c>
+      <c r="E153">
+        <v>18</v>
+      </c>
+      <c r="F153">
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>6900000</v>
+      </c>
+      <c r="C154">
+        <v>11</v>
+      </c>
+      <c r="D154" s="1">
+        <v>400000000000</v>
+      </c>
+      <c r="E154">
+        <v>18</v>
+      </c>
+      <c r="F154">
+        <v>452000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>6950000</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155" s="1">
+        <v>404000000000</v>
+      </c>
+      <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155">
+        <v>456000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156" s="1">
+        <v>408000000000</v>
+      </c>
+      <c r="E156">
+        <v>18</v>
+      </c>
+      <c r="F156">
+        <v>460000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355FAB6A-EB9F-450A-9234-BC54B403575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20547594-904D-46F7-8480-C0500C476C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150:C150"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3598,7 +3598,7 @@
       <c r="A156">
         <v>154</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="1">
         <v>7000000</v>
       </c>
       <c r="C156">
@@ -3612,6 +3612,406 @@
       </c>
       <c r="F156">
         <v>460000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <v>7050000</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157" s="1">
+        <v>412000000000</v>
+      </c>
+      <c r="E157">
+        <v>18</v>
+      </c>
+      <c r="F157">
+        <v>464000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>7100000</v>
+      </c>
+      <c r="C158">
+        <v>11</v>
+      </c>
+      <c r="D158" s="1">
+        <v>416000000000</v>
+      </c>
+      <c r="E158">
+        <v>18</v>
+      </c>
+      <c r="F158">
+        <v>468000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <v>7150000</v>
+      </c>
+      <c r="C159">
+        <v>11</v>
+      </c>
+      <c r="D159" s="1">
+        <v>420000000000</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>472000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>7200000</v>
+      </c>
+      <c r="C160">
+        <v>11</v>
+      </c>
+      <c r="D160" s="1">
+        <v>424000000000</v>
+      </c>
+      <c r="E160">
+        <v>18</v>
+      </c>
+      <c r="F160">
+        <v>476000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3">
+        <v>7250000</v>
+      </c>
+      <c r="C161">
+        <v>11</v>
+      </c>
+      <c r="D161" s="1">
+        <v>428000000000</v>
+      </c>
+      <c r="E161">
+        <v>18</v>
+      </c>
+      <c r="F161">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3">
+        <v>7300000</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162" s="1">
+        <v>432000000000</v>
+      </c>
+      <c r="E162">
+        <v>18</v>
+      </c>
+      <c r="F162">
+        <v>484000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3">
+        <v>7350000</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163" s="1">
+        <v>436000000000</v>
+      </c>
+      <c r="E163">
+        <v>18</v>
+      </c>
+      <c r="F163">
+        <v>488000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3">
+        <v>7400000</v>
+      </c>
+      <c r="C164">
+        <v>11</v>
+      </c>
+      <c r="D164" s="1">
+        <v>440000000000</v>
+      </c>
+      <c r="E164">
+        <v>18</v>
+      </c>
+      <c r="F164">
+        <v>492000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3">
+        <v>7450000</v>
+      </c>
+      <c r="C165">
+        <v>11</v>
+      </c>
+      <c r="D165" s="1">
+        <v>444000000000</v>
+      </c>
+      <c r="E165">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>496000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <v>7500000</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
+      </c>
+      <c r="D166" s="1">
+        <v>448000000000</v>
+      </c>
+      <c r="E166">
+        <v>18</v>
+      </c>
+      <c r="F166">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3">
+        <v>7550000</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1">
+        <v>452000000000</v>
+      </c>
+      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="F167">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3">
+        <v>7600000</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168" s="1">
+        <v>456000000000</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>508000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3">
+        <v>7650000</v>
+      </c>
+      <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169" s="1">
+        <v>460000000000</v>
+      </c>
+      <c r="E169">
+        <v>18</v>
+      </c>
+      <c r="F169">
+        <v>512000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <v>7700000</v>
+      </c>
+      <c r="C170">
+        <v>11</v>
+      </c>
+      <c r="D170" s="1">
+        <v>464000000000</v>
+      </c>
+      <c r="E170">
+        <v>18</v>
+      </c>
+      <c r="F170">
+        <v>516000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3">
+        <v>7750000</v>
+      </c>
+      <c r="C171">
+        <v>11</v>
+      </c>
+      <c r="D171" s="1">
+        <v>468000000000</v>
+      </c>
+      <c r="E171">
+        <v>18</v>
+      </c>
+      <c r="F171">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3">
+        <v>7800000</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172" s="1">
+        <v>472000000000</v>
+      </c>
+      <c r="E172">
+        <v>18</v>
+      </c>
+      <c r="F172">
+        <v>524000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3">
+        <v>7850000</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173" s="1">
+        <v>476000000000</v>
+      </c>
+      <c r="E173">
+        <v>18</v>
+      </c>
+      <c r="F173">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3">
+        <v>7900000</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174" s="1">
+        <v>480000000000</v>
+      </c>
+      <c r="E174">
+        <v>18</v>
+      </c>
+      <c r="F174">
+        <v>532000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3">
+        <v>7950000</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175" s="1">
+        <v>484000000000</v>
+      </c>
+      <c r="E175">
+        <v>18</v>
+      </c>
+      <c r="F175">
+        <v>536000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+      <c r="D176" s="1">
+        <v>488000000000</v>
+      </c>
+      <c r="E176">
+        <v>18</v>
+      </c>
+      <c r="F176">
+        <v>540000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20547594-904D-46F7-8480-C0500C476C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C5135-57B0-4428-8E59-20A9C2C44558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4014,6 +4014,206 @@
         <v>540000</v>
       </c>
     </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3">
+        <v>8050000</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177" s="1">
+        <v>492000000000</v>
+      </c>
+      <c r="E177">
+        <v>18</v>
+      </c>
+      <c r="F177">
+        <v>544000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3">
+        <v>8100000</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178" s="1">
+        <v>496000000000</v>
+      </c>
+      <c r="E178">
+        <v>18</v>
+      </c>
+      <c r="F178">
+        <v>548000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3">
+        <v>8150000</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179" s="1">
+        <v>500000000000</v>
+      </c>
+      <c r="E179">
+        <v>18</v>
+      </c>
+      <c r="F179">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3">
+        <v>8200000</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180" s="1">
+        <v>504000000000</v>
+      </c>
+      <c r="E180">
+        <v>18</v>
+      </c>
+      <c r="F180">
+        <v>556000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3">
+        <v>8250000</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181" s="1">
+        <v>508000000000</v>
+      </c>
+      <c r="E181">
+        <v>18</v>
+      </c>
+      <c r="F181">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3">
+        <v>8300000</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182" s="1">
+        <v>512000000000</v>
+      </c>
+      <c r="E182">
+        <v>18</v>
+      </c>
+      <c r="F182">
+        <v>564000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3">
+        <v>8350000</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183" s="1">
+        <v>516000000000</v>
+      </c>
+      <c r="E183">
+        <v>18</v>
+      </c>
+      <c r="F183">
+        <v>568000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3">
+        <v>8400000</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184" s="1">
+        <v>520000000000</v>
+      </c>
+      <c r="E184">
+        <v>18</v>
+      </c>
+      <c r="F184">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3">
+        <v>8450000</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185" s="1">
+        <v>524000000000</v>
+      </c>
+      <c r="E185">
+        <v>18</v>
+      </c>
+      <c r="F185">
+        <v>576000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3">
+        <v>8500000</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186" s="1">
+        <v>528000000000</v>
+      </c>
+      <c r="E186">
+        <v>18</v>
+      </c>
+      <c r="F186">
+        <v>580000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GumGiTable.xlsx
+++ b/Assets/06.Table/GumGiTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C5135-57B0-4428-8E59-20A9C2C44558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A157B1-BF18-4541-A9CF-189EDB91CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GumGiTable" sheetId="1" r:id="rId1"/>
@@ -481,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H178" sqref="H178"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4214,6 +4214,326 @@
         <v>580000</v>
       </c>
     </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3">
+        <v>8550000</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187" s="1">
+        <v>532000000000</v>
+      </c>
+      <c r="E187">
+        <v>18</v>
+      </c>
+      <c r="F187">
+        <v>584000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3">
+        <v>8600000</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188" s="1">
+        <v>536000000000</v>
+      </c>
+      <c r="E188">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>588000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3">
+        <v>8650000</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189" s="1">
+        <v>540000000000</v>
+      </c>
+      <c r="E189">
+        <v>18</v>
+      </c>
+      <c r="F189">
+        <v>592000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3">
+        <v>8700000</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190" s="1">
+        <v>544000000000</v>
+      </c>
+      <c r="E190">
+        <v>18</v>
+      </c>
+      <c r="F190">
+        <v>596000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3">
+        <v>8750000</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191" s="1">
+        <v>548000000000</v>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3">
+        <v>8800000</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192" s="1">
+        <v>552000000000</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3">
+        <v>8850000</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193" s="1">
+        <v>556000000000</v>
+      </c>
+      <c r="E193">
+        <v>18</v>
+      </c>
+      <c r="F193">
+        <v>608000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3">
+        <v>8900000</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194" s="1">
+        <v>560000000000</v>
+      </c>
+      <c r="E194">
+        <v>18</v>
+      </c>
+      <c r="F194">
+        <v>612000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3">
+        <v>8950000</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+      <c r="D195" s="1">
+        <v>564000000000</v>
+      </c>
+      <c r="E195">
+        <v>18</v>
+      </c>
+      <c r="F195">
+        <v>616000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196" s="1">
+        <v>568000000000</v>
+      </c>
+      <c r="E196">
+        <v>18</v>
+      </c>
+      <c r="F196">
+        <v>620000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3">
+        <v>9050000</v>
+      </c>
+      <c r="C197">
+        <v>11</v>
+      </c>
+      <c r="D197" s="1">
+        <v>572000000000</v>
+      </c>
+      <c r="E197">
+        <v>18</v>
+      </c>
+      <c r="F197">
+        <v>624000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3">
+        <v>9100000</v>
+      </c>
+      <c r="C198">
+        <v>11</v>
+      </c>
+      <c r="D198" s="1">
+        <v>576000000000</v>
+      </c>
+      <c r="E198">
+        <v>18</v>
+      </c>
+      <c r="F198">
+        <v>628000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3">
+        <v>9150000</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199" s="1">
+        <v>580000000000</v>
+      </c>
+      <c r="E199">
+        <v>18</v>
+      </c>
+      <c r="F199">
+        <v>632000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3">
+        <v>9200000</v>
+      </c>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200" s="1">
+        <v>584000000000</v>
+      </c>
+      <c r="E200">
+        <v>18</v>
+      </c>
+      <c r="F200">
+        <v>636000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3">
+        <v>9250000</v>
+      </c>
+      <c r="C201">
+        <v>11</v>
+      </c>
+      <c r="D201" s="1">
+        <v>588000000000</v>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3">
+        <v>9300000</v>
+      </c>
+      <c r="C202">
+        <v>11</v>
+      </c>
+      <c r="D202" s="1">
+        <v>592000000000</v>
+      </c>
+      <c r="E202">
+        <v>18</v>
+      </c>
+      <c r="F202">
+        <v>644000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
